--- a/output/1Y_P75_1VAL-D.xlsx
+++ b/output/1Y_P75_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>559.2309</v>
       </c>
-      <c r="G2" s="1">
-        <v>559.2309</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.159299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8817</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.159299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E3" s="1">
+        <v>559.2309</v>
+      </c>
       <c r="F3" s="1">
         <v>558.9184</v>
       </c>
-      <c r="G3" s="1">
-        <v>1118.1493</v>
-      </c>
       <c r="H3" s="1">
-        <v>19901.9399</v>
+        <v>9953.7516</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8867</v>
+        <v>9953.7516</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8817</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19901.9399</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0023</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.2541</v>
       </c>
+      <c r="E4" s="1">
+        <v>1118.1493</v>
+      </c>
       <c r="F4" s="1">
         <v>615.2294000000001</v>
       </c>
-      <c r="G4" s="1">
-        <v>1733.3787</v>
-      </c>
       <c r="H4" s="1">
-        <v>28028.3871</v>
+        <v>18080.251</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3072</v>
+        <v>18080.251</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.8867</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.5</v>
       </c>
-      <c r="L4" s="1">
-        <v>503.1672</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9496.8328</v>
+        <v>251.6539</v>
       </c>
       <c r="O4" s="1">
-        <v>503.1672</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>28531.5543</v>
+        <v>-9748.346100000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0458</v>
+        <v>-0.0939</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.4549</v>
       </c>
+      <c r="E5" s="1">
+        <v>1733.3787</v>
+      </c>
       <c r="F5" s="1">
-        <v>650.6614</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2384.0402</v>
+        <v>648.8532</v>
       </c>
       <c r="H5" s="1">
-        <v>36653.9021</v>
+        <v>26650.1777</v>
       </c>
       <c r="I5" s="1">
-        <v>40055.9075</v>
+        <v>251.6539</v>
       </c>
       <c r="J5" s="1">
-        <v>16.8017</v>
+        <v>26901.8317</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30027.9615</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.3234</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10055.9075</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>447.2597</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>37101.1619</v>
+        <v>-10027.9615</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0371</v>
+        <v>-0.042</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.6183</v>
       </c>
+      <c r="E6" s="1">
+        <v>2382.2319</v>
+      </c>
       <c r="F6" s="1">
-        <v>643.8542</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3027.8943</v>
+        <v>642.0649</v>
       </c>
       <c r="H6" s="1">
-        <v>47045.3024</v>
+        <v>37013.4522</v>
       </c>
       <c r="I6" s="1">
-        <v>50111.8149</v>
+        <v>223.6924</v>
       </c>
       <c r="J6" s="1">
-        <v>16.5501</v>
+        <v>37237.1445</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40055.9231</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.8145</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10055.9075</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>391.3523</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>47436.6546</v>
+        <v>-10027.9615</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0071</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.0526</v>
       </c>
+      <c r="E7" s="1">
+        <v>3024.2968</v>
+      </c>
       <c r="F7" s="1">
-        <v>626.4348</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3654.3291</v>
+        <v>624.6939</v>
       </c>
       <c r="H7" s="1">
-        <v>58357.0781</v>
+        <v>48295.9027</v>
       </c>
       <c r="I7" s="1">
-        <v>60167.7224</v>
+        <v>195.7308</v>
       </c>
       <c r="J7" s="1">
-        <v>16.4648</v>
+        <v>48491.6335</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50083.8846</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.5605</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10055.9075</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>335.4448</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58692.5229</v>
+        <v>-10027.9615</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0219</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.7562</v>
       </c>
+      <c r="E8" s="1">
+        <v>3648.9907</v>
+      </c>
       <c r="F8" s="1">
-        <v>638.2191</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4292.5482</v>
+        <v>636.4453999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>67283.5469</v>
+        <v>57196.1048</v>
       </c>
       <c r="I8" s="1">
-        <v>70223.6299</v>
+        <v>167.7693</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3594</v>
+        <v>57363.874</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60111.8462</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.4736</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10055.9075</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>279.5373</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67563.0842</v>
+        <v>-10027.9615</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0164</v>
+        <v>-0.0193</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.3605</v>
       </c>
+      <c r="E9" s="1">
+        <v>4285.4361</v>
+      </c>
       <c r="F9" s="1">
-        <v>654.6602</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4947.2084</v>
+        <v>652.8407999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>75597.3017</v>
+        <v>65484.8925</v>
       </c>
       <c r="I9" s="1">
-        <v>80279.5373</v>
+        <v>139.8077</v>
       </c>
       <c r="J9" s="1">
-        <v>16.2272</v>
+        <v>65624.70020000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70139.8077</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.367</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10055.9075</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>223.6299</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>75820.9316</v>
+        <v>-10027.9615</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0225</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.2796</v>
       </c>
+      <c r="E10" s="1">
+        <v>4938.277</v>
+      </c>
       <c r="F10" s="1">
-        <v>658.1264</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5605.3347</v>
+        <v>656.2974</v>
       </c>
       <c r="H10" s="1">
-        <v>85202.76949999999</v>
+        <v>75063.2913</v>
       </c>
       <c r="I10" s="1">
-        <v>90335.4448</v>
+        <v>111.8462</v>
       </c>
       <c r="J10" s="1">
-        <v>16.116</v>
+        <v>75175.1375</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80167.7693</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.234</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10055.9075</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>167.7224</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>85370.49189999999</v>
+        <v>-10027.9615</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0052</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.4022</v>
       </c>
+      <c r="E11" s="1">
+        <v>5594.5744</v>
+      </c>
       <c r="F11" s="1">
-        <v>652.8877</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6258.2225</v>
+        <v>651.0733</v>
       </c>
       <c r="H11" s="1">
-        <v>95890.3621</v>
+        <v>85721.7466</v>
       </c>
       <c r="I11" s="1">
-        <v>100391.3523</v>
+        <v>83.88460000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0415</v>
+        <v>85805.6312</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90195.7308</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.122</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10055.9075</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>111.8149</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>96002.177</v>
+        <v>-10027.9615</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0066</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.042</v>
       </c>
+      <c r="E12" s="1">
+        <v>6245.6477</v>
+      </c>
       <c r="F12" s="1">
-        <v>626.8487</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6885.0712</v>
+        <v>625.1067</v>
       </c>
       <c r="H12" s="1">
-        <v>109878.1628</v>
+        <v>99673.6667</v>
       </c>
       <c r="I12" s="1">
-        <v>110447.2597</v>
+        <v>55.9231</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0416</v>
+        <v>99729.5898</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100223.6924</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.047</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10055.9075</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>55.9075</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>109934.0703</v>
+        <v>-10027.9615</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0371</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.8442</v>
       </c>
+      <c r="E13" s="1">
+        <v>6870.7544</v>
+      </c>
       <c r="F13" s="1">
-        <v>634.6744</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7519.7456</v>
+        <v>632.9106</v>
       </c>
       <c r="H13" s="1">
-        <v>118526.2295</v>
+        <v>108296.8303</v>
       </c>
       <c r="I13" s="1">
-        <v>120503.1672</v>
+        <v>27.9615</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0249</v>
+        <v>108324.7919</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110251.6539</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.0465</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10055.9075</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>118526.2295</v>
+        <v>-10027.9615</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0117</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.9709</v>
       </c>
+      <c r="E14" s="1">
+        <v>7503.6649</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7519.7456</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6870.7544</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119218.2284</v>
       </c>
       <c r="I14" s="1">
-        <v>120503.1672</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0249</v>
+        <v>119218.2284</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110251.6539</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.693</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>119473.7175</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>119473.7175</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119473.7175</v>
+        <v>109162.5454</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0704</v>
+        <v>0.0076</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.8817</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.2309</v>
       </c>
       <c r="G2" s="1">
-        <v>559.2309</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.159299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8817</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.159299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.8917</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>559.2309</v>
       </c>
       <c r="F3" s="1">
         <v>558.9184</v>
       </c>
       <c r="G3" s="1">
-        <v>1118.1493</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19901.9399</v>
+        <v>9953.7516</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8867</v>
+        <v>9953.7516</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8817</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19901.9399</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0023</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.2541</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1118.1493</v>
       </c>
       <c r="F4" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1733.3787</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>28028.3871</v>
+        <v>18080.251</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3072</v>
+        <v>18080.251</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.8867</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.5</v>
       </c>
-      <c r="L4" s="1">
-        <v>503.1672</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9496.8328</v>
+        <v>251.6539</v>
       </c>
       <c r="O4" s="1">
-        <v>503.1672</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>28531.5543</v>
+        <v>-9748.346100000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0458</v>
+        <v>-0.0939</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.4549</v>
       </c>
       <c r="E5" s="1">
+        <v>1733.3787</v>
+      </c>
+      <c r="F5" s="1">
+        <v>663.3271</v>
+      </c>
+      <c r="G5" s="1">
         <v>40000</v>
       </c>
-      <c r="F5" s="1">
-        <v>679.6011</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2412.9798</v>
-      </c>
       <c r="H5" s="1">
-        <v>37098.8409</v>
+        <v>26650.1777</v>
       </c>
       <c r="I5" s="1">
-        <v>40503.1672</v>
+        <v>251.6539</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7855</v>
+        <v>26901.8317</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30251.6539</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4524</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10503.1672</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>37098.8409</v>
+        <v>-10251.6539</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0372</v>
+        <v>-0.042</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.6183</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2396.7058</v>
       </c>
       <c r="F6" s="1">
         <v>640.2745</v>
       </c>
       <c r="G6" s="1">
-        <v>3053.2544</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>47439.3292</v>
+        <v>37238.3372</v>
       </c>
       <c r="I6" s="1">
-        <v>50503.1672</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.5408</v>
+        <v>37238.3372</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40251.6539</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.7946</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47439.3292</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0072</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.0526</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3036.9804</v>
       </c>
       <c r="F7" s="1">
         <v>622.952</v>
       </c>
       <c r="G7" s="1">
-        <v>3676.2064</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>58706.4432</v>
+        <v>48498.4505</v>
       </c>
       <c r="I7" s="1">
-        <v>60503.1672</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.458</v>
+        <v>48498.4505</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50251.6539</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.5466</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58706.4432</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0221</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.7562</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3659.9324</v>
       </c>
       <c r="F8" s="1">
         <v>634.6708</v>
       </c>
       <c r="G8" s="1">
-        <v>4310.8772</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>67570.8449</v>
+        <v>57367.6105</v>
       </c>
       <c r="I8" s="1">
-        <v>70503.1672</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3547</v>
+        <v>57367.6105</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60251.6539</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.4625</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67570.8449</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0165</v>
+        <v>-0.0193</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.3605</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4294.6032</v>
       </c>
       <c r="F9" s="1">
         <v>651.0205</v>
       </c>
       <c r="G9" s="1">
-        <v>4961.8977</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>75821.7662</v>
+        <v>65624.97259999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80503.1672</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.2243</v>
+        <v>65624.97259999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70251.6539</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.3581</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>75821.7662</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0225</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.2796</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4945.6237</v>
       </c>
       <c r="F10" s="1">
         <v>654.4674</v>
       </c>
       <c r="G10" s="1">
-        <v>5616.3651</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>85370.4342</v>
+        <v>75174.9636</v>
       </c>
       <c r="I10" s="1">
-        <v>90503.1672</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1142</v>
+        <v>75174.9636</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80251.6539</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.2268</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85370.4342</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.4022</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5600.0911</v>
       </c>
       <c r="F11" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6265.623</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>96003.755</v>
+        <v>85806.2754</v>
       </c>
       <c r="I11" s="1">
-        <v>100503.1672</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0404</v>
+        <v>85806.2754</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90251.6539</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.1161</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>96003.755</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0066</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.042</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6249.349</v>
       </c>
       <c r="F12" s="1">
         <v>623.3637</v>
       </c>
       <c r="G12" s="1">
-        <v>6888.9867</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>109940.6491</v>
+        <v>99732.7353</v>
       </c>
       <c r="I12" s="1">
-        <v>110503.1672</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0406</v>
+        <v>99732.7353</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100251.6539</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.0419</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109940.6491</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0371</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.8442</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6872.7126</v>
       </c>
       <c r="F13" s="1">
         <v>631.1458</v>
       </c>
       <c r="G13" s="1">
-        <v>7520.1324</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>118532.3275</v>
+        <v>108327.6966</v>
       </c>
       <c r="I13" s="1">
-        <v>120503.1672</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0241</v>
+        <v>108327.6966</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110251.6539</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.0419</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>118532.3275</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0117</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>15.9709</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7503.8584</v>
       </c>
       <c r="F14" s="1">
-        <v>-7520.1324</v>
+        <v>-7503.8584</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119221.3026</v>
       </c>
       <c r="I14" s="1">
-        <v>120503.1672</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0241</v>
+        <v>119221.3026</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110251.6539</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6927</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>119479.8641</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>119479.8641</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119479.8641</v>
+        <v>119221.3026</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0704</v>
+        <v>0.0076</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.8817</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.2309</v>
       </c>
       <c r="G2" s="1">
-        <v>559.2309</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.159299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8817</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.159299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.8917</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>559.2309</v>
       </c>
       <c r="F3" s="1">
         <v>558.9184</v>
       </c>
       <c r="G3" s="1">
-        <v>1118.1493</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19901.9399</v>
+        <v>9953.7516</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8867</v>
+        <v>9953.7516</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8817</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19901.9399</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0023</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.2541</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1118.1493</v>
       </c>
       <c r="F4" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1733.3787</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28028.3871</v>
+        <v>18080.251</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3072</v>
+        <v>18080.251</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.8867</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.5</v>
       </c>
-      <c r="L4" s="1">
-        <v>503.1672</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9496.8328</v>
+        <v>251.6539</v>
       </c>
       <c r="O4" s="1">
-        <v>503.1672</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>28531.5543</v>
+        <v>-9748.346100000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0458</v>
+        <v>-0.0939</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.4549</v>
       </c>
       <c r="E5" s="1">
+        <v>1733.3787</v>
+      </c>
+      <c r="F5" s="1">
+        <v>663.3271</v>
+      </c>
+      <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
-      <c r="F5" s="1">
-        <v>679.6011</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2412.9798</v>
-      </c>
       <c r="H5" s="1">
-        <v>37098.8409</v>
+        <v>26650.1777</v>
       </c>
       <c r="I5" s="1">
-        <v>40503.1672</v>
+        <v>251.6539</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7855</v>
+        <v>26901.8317</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30251.6539</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4524</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10503.1672</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>37098.8409</v>
+        <v>-10251.6539</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0372</v>
+        <v>-0.042</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.6183</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2396.7058</v>
       </c>
       <c r="F6" s="1">
         <v>640.2745</v>
       </c>
       <c r="G6" s="1">
-        <v>3053.2544</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>47439.3292</v>
+        <v>37238.3372</v>
       </c>
       <c r="I6" s="1">
-        <v>50503.1672</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.5408</v>
+        <v>37238.3372</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40251.6539</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.7946</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47439.3292</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0072</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.0526</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3036.9804</v>
       </c>
       <c r="F7" s="1">
         <v>622.952</v>
       </c>
       <c r="G7" s="1">
-        <v>3676.2064</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>58706.4432</v>
+        <v>48498.4505</v>
       </c>
       <c r="I7" s="1">
-        <v>60503.1672</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.458</v>
+        <v>48498.4505</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50251.6539</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.5466</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58706.4432</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0221</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.7562</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3659.9324</v>
       </c>
       <c r="F8" s="1">
         <v>634.6708</v>
       </c>
       <c r="G8" s="1">
-        <v>4310.8772</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>67570.8449</v>
+        <v>57367.6105</v>
       </c>
       <c r="I8" s="1">
-        <v>70503.1672</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3547</v>
+        <v>57367.6105</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60251.6539</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.4625</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67570.8449</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0165</v>
+        <v>-0.0193</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.3605</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4294.6032</v>
       </c>
       <c r="F9" s="1">
         <v>651.0205</v>
       </c>
       <c r="G9" s="1">
-        <v>4961.8977</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>75821.7662</v>
+        <v>65624.97259999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80503.1672</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.2243</v>
+        <v>65624.97259999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70251.6539</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.3581</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>75821.7662</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0225</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.2796</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4945.6237</v>
       </c>
       <c r="F10" s="1">
         <v>654.4674</v>
       </c>
       <c r="G10" s="1">
-        <v>5616.3651</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>85370.4342</v>
+        <v>75174.9636</v>
       </c>
       <c r="I10" s="1">
-        <v>90503.1672</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1142</v>
+        <v>75174.9636</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80251.6539</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.2268</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85370.4342</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.4022</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5600.0911</v>
       </c>
       <c r="F11" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6265.623</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>96003.755</v>
+        <v>85806.2754</v>
       </c>
       <c r="I11" s="1">
-        <v>100503.1672</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0404</v>
+        <v>85806.2754</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90251.6539</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.1161</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>96003.755</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0066</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.042</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6249.349</v>
       </c>
       <c r="F12" s="1">
         <v>623.3637</v>
       </c>
       <c r="G12" s="1">
-        <v>6888.9867</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>109940.6491</v>
+        <v>99732.7353</v>
       </c>
       <c r="I12" s="1">
-        <v>110503.1672</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0406</v>
+        <v>99732.7353</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100251.6539</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.0419</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109940.6491</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0371</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.8442</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6872.7126</v>
       </c>
       <c r="F13" s="1">
         <v>631.1458</v>
       </c>
       <c r="G13" s="1">
-        <v>7520.1324</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>118532.3275</v>
+        <v>108327.6966</v>
       </c>
       <c r="I13" s="1">
-        <v>120503.1672</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0241</v>
+        <v>108327.6966</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110251.6539</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.0419</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>118532.3275</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0117</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>15.9709</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7503.8584</v>
       </c>
       <c r="F14" s="1">
-        <v>-7520.1324</v>
+        <v>-7503.8584</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119221.3026</v>
       </c>
       <c r="I14" s="1">
-        <v>120503.1672</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0241</v>
+        <v>119221.3026</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110251.6539</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6927</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>119479.8641</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>119479.8641</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119479.8641</v>
+        <v>119221.3026</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0704</v>
+        <v>0.0076</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.8817</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.2309</v>
       </c>
       <c r="G2" s="1">
-        <v>559.2309</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.159299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8817</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.159299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.8917</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>559.2309</v>
       </c>
       <c r="F3" s="1">
         <v>558.9184</v>
       </c>
       <c r="G3" s="1">
-        <v>1118.1493</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19901.9399</v>
+        <v>9953.7516</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8867</v>
+        <v>9953.7516</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8817</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19901.9399</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0023</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.2541</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1118.1493</v>
       </c>
       <c r="F4" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1733.3787</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>28028.3871</v>
+        <v>18080.251</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3072</v>
+        <v>18080.251</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.8867</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.5</v>
       </c>
-      <c r="L4" s="1">
-        <v>503.1672</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9496.8328</v>
+        <v>251.6539</v>
       </c>
       <c r="O4" s="1">
-        <v>503.1672</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>28531.5543</v>
+        <v>-9748.346100000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0458</v>
+        <v>-0.0939</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.4549</v>
       </c>
       <c r="E5" s="1">
+        <v>1733.3787</v>
+      </c>
+      <c r="F5" s="1">
+        <v>663.3271</v>
+      </c>
+      <c r="G5" s="1">
         <v>40604.01</v>
       </c>
-      <c r="F5" s="1">
-        <v>679.6011</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2412.9798</v>
-      </c>
       <c r="H5" s="1">
-        <v>37098.8409</v>
+        <v>26650.1777</v>
       </c>
       <c r="I5" s="1">
-        <v>40503.1672</v>
+        <v>251.6539</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7855</v>
+        <v>26901.8317</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30251.6539</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4524</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10503.1672</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>37098.8409</v>
+        <v>-10251.6539</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0372</v>
+        <v>-0.042</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.6183</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2396.7058</v>
       </c>
       <c r="F6" s="1">
         <v>640.2745</v>
       </c>
       <c r="G6" s="1">
-        <v>3053.2544</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>47439.3292</v>
+        <v>37238.3372</v>
       </c>
       <c r="I6" s="1">
-        <v>50503.1672</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.5408</v>
+        <v>37238.3372</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40251.6539</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.7946</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47439.3292</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0072</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.0526</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3036.9804</v>
       </c>
       <c r="F7" s="1">
         <v>622.952</v>
       </c>
       <c r="G7" s="1">
-        <v>3676.2064</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>58706.4432</v>
+        <v>48498.4505</v>
       </c>
       <c r="I7" s="1">
-        <v>60503.1672</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.458</v>
+        <v>48498.4505</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50251.6539</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.5466</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58706.4432</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0221</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.7562</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3659.9324</v>
       </c>
       <c r="F8" s="1">
         <v>634.6708</v>
       </c>
       <c r="G8" s="1">
-        <v>4310.8772</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>67570.8449</v>
+        <v>57367.6105</v>
       </c>
       <c r="I8" s="1">
-        <v>70503.1672</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3547</v>
+        <v>57367.6105</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60251.6539</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.4625</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67570.8449</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0165</v>
+        <v>-0.0193</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.3605</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4294.6032</v>
       </c>
       <c r="F9" s="1">
         <v>651.0205</v>
       </c>
       <c r="G9" s="1">
-        <v>4961.8977</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>75821.7662</v>
+        <v>65624.97259999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80503.1672</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.2243</v>
+        <v>65624.97259999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70251.6539</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.3581</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>75821.7662</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0225</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.2796</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4945.6237</v>
       </c>
       <c r="F10" s="1">
         <v>654.4674</v>
       </c>
       <c r="G10" s="1">
-        <v>5616.3651</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>85370.4342</v>
+        <v>75174.9636</v>
       </c>
       <c r="I10" s="1">
-        <v>90503.1672</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1142</v>
+        <v>75174.9636</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80251.6539</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.2268</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85370.4342</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.4022</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5600.0911</v>
       </c>
       <c r="F11" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6265.623</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>96003.755</v>
+        <v>85806.2754</v>
       </c>
       <c r="I11" s="1">
-        <v>100503.1672</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0404</v>
+        <v>85806.2754</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90251.6539</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.1161</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>96003.755</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0066</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.042</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6249.349</v>
       </c>
       <c r="F12" s="1">
         <v>623.3637</v>
       </c>
       <c r="G12" s="1">
-        <v>6888.9867</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>109940.6491</v>
+        <v>99732.7353</v>
       </c>
       <c r="I12" s="1">
-        <v>110503.1672</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0406</v>
+        <v>99732.7353</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100251.6539</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.0419</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109940.6491</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0371</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.8442</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6872.7126</v>
       </c>
       <c r="F13" s="1">
         <v>631.1458</v>
       </c>
       <c r="G13" s="1">
-        <v>7520.1324</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>118532.3275</v>
+        <v>108327.6966</v>
       </c>
       <c r="I13" s="1">
-        <v>120503.1672</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0241</v>
+        <v>108327.6966</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110251.6539</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.0419</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>118532.3275</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0117</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>15.9709</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7503.8584</v>
       </c>
       <c r="F14" s="1">
-        <v>-7520.1324</v>
+        <v>-7503.8584</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119221.3026</v>
       </c>
       <c r="I14" s="1">
-        <v>120503.1672</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0241</v>
+        <v>119221.3026</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110251.6539</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6927</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>119479.8641</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>119479.8641</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119479.8641</v>
+        <v>119221.3026</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0704</v>
+        <v>0.0076</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.8817</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.2309</v>
       </c>
       <c r="G2" s="1">
-        <v>559.2309</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.159299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8817</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.159299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.8917</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>559.2309</v>
       </c>
       <c r="F3" s="1">
         <v>558.9184</v>
       </c>
       <c r="G3" s="1">
-        <v>1118.1493</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19901.9399</v>
+        <v>9953.7516</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8867</v>
+        <v>9953.7516</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8817</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19901.9399</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0023</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.2541</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1118.1493</v>
       </c>
       <c r="F4" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1733.3787</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28028.3871</v>
+        <v>18080.251</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3072</v>
+        <v>18080.251</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.8867</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.5</v>
       </c>
-      <c r="L4" s="1">
-        <v>503.1672</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9496.8328</v>
+        <v>251.6539</v>
       </c>
       <c r="O4" s="1">
-        <v>503.1672</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>28531.5543</v>
+        <v>-9748.346100000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0458</v>
+        <v>-0.0939</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.4549</v>
       </c>
       <c r="E5" s="1">
+        <v>1733.3787</v>
+      </c>
+      <c r="F5" s="1">
+        <v>663.3271</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>679.6011</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2412.9798</v>
-      </c>
       <c r="H5" s="1">
-        <v>37098.8409</v>
+        <v>26650.1777</v>
       </c>
       <c r="I5" s="1">
-        <v>40503.1672</v>
+        <v>251.6539</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7855</v>
+        <v>26901.8317</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30251.6539</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4524</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10503.1672</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>37098.8409</v>
+        <v>-10251.6539</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0372</v>
+        <v>-0.042</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.6183</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2396.7058</v>
       </c>
       <c r="F6" s="1">
         <v>640.2745</v>
       </c>
       <c r="G6" s="1">
-        <v>3053.2544</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>47439.3292</v>
+        <v>37238.3372</v>
       </c>
       <c r="I6" s="1">
-        <v>50503.1672</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.5408</v>
+        <v>37238.3372</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40251.6539</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.7946</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47439.3292</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0072</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.0526</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3036.9804</v>
       </c>
       <c r="F7" s="1">
         <v>622.952</v>
       </c>
       <c r="G7" s="1">
-        <v>3676.2064</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>58706.4432</v>
+        <v>48498.4505</v>
       </c>
       <c r="I7" s="1">
-        <v>60503.1672</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.458</v>
+        <v>48498.4505</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50251.6539</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.5466</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58706.4432</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0221</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.7562</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3659.9324</v>
       </c>
       <c r="F8" s="1">
         <v>634.6708</v>
       </c>
       <c r="G8" s="1">
-        <v>4310.8772</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>67570.8449</v>
+        <v>57367.6105</v>
       </c>
       <c r="I8" s="1">
-        <v>70503.1672</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3547</v>
+        <v>57367.6105</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60251.6539</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.4625</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67570.8449</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0165</v>
+        <v>-0.0193</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.3605</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4294.6032</v>
       </c>
       <c r="F9" s="1">
         <v>651.0205</v>
       </c>
       <c r="G9" s="1">
-        <v>4961.8977</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>75821.7662</v>
+        <v>65624.97259999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80503.1672</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.2243</v>
+        <v>65624.97259999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70251.6539</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.3581</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>75821.7662</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0225</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.2796</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4945.6237</v>
       </c>
       <c r="F10" s="1">
         <v>654.4674</v>
       </c>
       <c r="G10" s="1">
-        <v>5616.3651</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85370.4342</v>
+        <v>75174.9636</v>
       </c>
       <c r="I10" s="1">
-        <v>90503.1672</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1142</v>
+        <v>75174.9636</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80251.6539</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.2268</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85370.4342</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.4022</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5600.0911</v>
       </c>
       <c r="F11" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6265.623</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>96003.755</v>
+        <v>85806.2754</v>
       </c>
       <c r="I11" s="1">
-        <v>100503.1672</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0404</v>
+        <v>85806.2754</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90251.6539</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.1161</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>96003.755</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0066</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.042</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6249.349</v>
       </c>
       <c r="F12" s="1">
         <v>623.3637</v>
       </c>
       <c r="G12" s="1">
-        <v>6888.9867</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>109940.6491</v>
+        <v>99732.7353</v>
       </c>
       <c r="I12" s="1">
-        <v>110503.1672</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0406</v>
+        <v>99732.7353</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100251.6539</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.0419</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109940.6491</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0371</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.8442</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6872.7126</v>
       </c>
       <c r="F13" s="1">
         <v>631.1458</v>
       </c>
       <c r="G13" s="1">
-        <v>7520.1324</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>118532.3275</v>
+        <v>108327.6966</v>
       </c>
       <c r="I13" s="1">
-        <v>120503.1672</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0241</v>
+        <v>108327.6966</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110251.6539</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.0419</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>118532.3275</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0117</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>15.9709</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7503.8584</v>
       </c>
       <c r="F14" s="1">
-        <v>-7520.1324</v>
+        <v>-7503.8584</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119221.3026</v>
       </c>
       <c r="I14" s="1">
-        <v>120503.1672</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0241</v>
+        <v>119221.3026</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110251.6539</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6927</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>119479.8641</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>119479.8641</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119479.8641</v>
+        <v>119221.3026</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0704</v>
+        <v>0.0076</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.9278</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.0249</v>
+        <v>14.693</v>
       </c>
       <c r="D3" s="1">
-        <v>16.0241</v>
+        <v>14.6927</v>
       </c>
       <c r="E3" s="1">
-        <v>16.0241</v>
+        <v>14.6927</v>
       </c>
       <c r="F3" s="1">
-        <v>16.0241</v>
+        <v>14.6927</v>
       </c>
       <c r="G3" s="1">
-        <v>16.0241</v>
+        <v>14.6927</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1054</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1389</v>
+        <v>-0.1128</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1388</v>
+        <v>-0.1127</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1388</v>
+        <v>-0.1127</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1388</v>
+        <v>-0.1127</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1388</v>
+        <v>-0.1127</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1173</v>
       </c>
       <c r="C5" s="3">
-        <v>0.09859999999999999</v>
+        <v>0.1156</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0988</v>
+        <v>0.1156</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0988</v>
+        <v>0.1156</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0988</v>
+        <v>0.1156</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0988</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.0716</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.6144</v>
+        <v>-1.1518</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.6109</v>
+        <v>-1.1505</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.6109</v>
+        <v>-1.1505</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.6109</v>
+        <v>-1.1505</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.6109</v>
+        <v>-1.1505</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0081</v>
+        <v>-0.1626</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.008</v>
+        <v>-0.012</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.008</v>
+        <v>-0.012</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.008</v>
+        <v>-0.012</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.008</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>503.1672</v>
+        <v>251.6539</v>
       </c>
       <c r="D8" s="1">
-        <v>503.1672</v>
+        <v>251.6539</v>
       </c>
       <c r="E8" s="1">
-        <v>503.1672</v>
+        <v>251.6539</v>
       </c>
       <c r="F8" s="1">
-        <v>503.1672</v>
+        <v>251.6539</v>
       </c>
       <c r="G8" s="1">
-        <v>503.1672</v>
+        <v>251.6539</v>
       </c>
     </row>
   </sheetData>
